--- a/data/LesJO.xlsx
+++ b/data/LesJO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherinevigouroux/Enseignement/CEBD/python-bdbc/2022-23_JO_Project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ronald\Desktop\S5\CEBD\CEBD_PROJECT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4518C095-A51B-7C4F-9BFA-5DF67497B4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DB6F4C-F4A1-415F-92B5-0C0CA8D80D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{EBD7A425-6278-DD4E-B89F-84B68DE5DC01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EBD7A425-6278-DD4E-B89F-84B68DE5DC01}"/>
   </bookViews>
   <sheets>
     <sheet name="LesSportifsEQ" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2709,7 +2706,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3007,21 +3004,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8829C0-0ECE-234A-9CEE-3035C5939D9D}">
   <dimension ref="A1:G348"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3044,7 +3041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3067,7 +3064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3087,7 +3084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3107,7 +3104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3127,7 +3124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3150,7 +3147,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3173,7 +3170,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3196,7 +3193,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3219,7 +3216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -3242,7 +3239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -3265,7 +3262,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -3288,7 +3285,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -3311,7 +3308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -3334,7 +3331,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -3354,7 +3351,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -3374,7 +3371,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -3397,7 +3394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -3420,7 +3417,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -3443,7 +3440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -3466,7 +3463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -3489,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -3509,7 +3506,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1021</v>
       </c>
@@ -3532,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1022</v>
       </c>
@@ -3555,7 +3552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1023</v>
       </c>
@@ -3578,7 +3575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1024</v>
       </c>
@@ -3598,7 +3595,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1025</v>
       </c>
@@ -3621,7 +3618,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1026</v>
       </c>
@@ -3644,7 +3641,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1027</v>
       </c>
@@ -3667,7 +3664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1028</v>
       </c>
@@ -3690,7 +3687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1029</v>
       </c>
@@ -3713,7 +3710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1030</v>
       </c>
@@ -3736,7 +3733,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1031</v>
       </c>
@@ -3759,7 +3756,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1032</v>
       </c>
@@ -3782,7 +3779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1032</v>
       </c>
@@ -3805,7 +3802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1033</v>
       </c>
@@ -3828,7 +3825,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1034</v>
       </c>
@@ -3851,7 +3848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1034</v>
       </c>
@@ -3874,7 +3871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1035</v>
       </c>
@@ -3897,7 +3894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1035</v>
       </c>
@@ -3920,7 +3917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1036</v>
       </c>
@@ -3943,7 +3940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1037</v>
       </c>
@@ -3963,7 +3960,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1038</v>
       </c>
@@ -3986,7 +3983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1038</v>
       </c>
@@ -4009,7 +4006,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1039</v>
       </c>
@@ -4032,7 +4029,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1040</v>
       </c>
@@ -4055,7 +4052,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1041</v>
       </c>
@@ -4078,7 +4075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1042</v>
       </c>
@@ -4101,7 +4098,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1043</v>
       </c>
@@ -4121,7 +4118,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1044</v>
       </c>
@@ -4141,7 +4138,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1045</v>
       </c>
@@ -4161,7 +4158,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1046</v>
       </c>
@@ -4184,7 +4181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1047</v>
       </c>
@@ -4207,7 +4204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1047</v>
       </c>
@@ -4230,7 +4227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1048</v>
       </c>
@@ -4253,7 +4250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1049</v>
       </c>
@@ -4276,7 +4273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1050</v>
       </c>
@@ -4299,7 +4296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1050</v>
       </c>
@@ -4322,7 +4319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1051</v>
       </c>
@@ -4342,7 +4339,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1052</v>
       </c>
@@ -4365,7 +4362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1053</v>
       </c>
@@ -4388,7 +4385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1054</v>
       </c>
@@ -4411,7 +4408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1055</v>
       </c>
@@ -4434,7 +4431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1056</v>
       </c>
@@ -4457,7 +4454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1056</v>
       </c>
@@ -4480,7 +4477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1057</v>
       </c>
@@ -4503,7 +4500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1057</v>
       </c>
@@ -4526,7 +4523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1058</v>
       </c>
@@ -4549,7 +4546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1059</v>
       </c>
@@ -4572,7 +4569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1060</v>
       </c>
@@ -4595,7 +4592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1061</v>
       </c>
@@ -4618,7 +4615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1062</v>
       </c>
@@ -4641,7 +4638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1063</v>
       </c>
@@ -4664,7 +4661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1064</v>
       </c>
@@ -4687,7 +4684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1064</v>
       </c>
@@ -4710,7 +4707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1065</v>
       </c>
@@ -4730,7 +4727,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1066</v>
       </c>
@@ -4753,7 +4750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1066</v>
       </c>
@@ -4776,7 +4773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1067</v>
       </c>
@@ -4799,7 +4796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1067</v>
       </c>
@@ -4822,7 +4819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1067</v>
       </c>
@@ -4845,7 +4842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1068</v>
       </c>
@@ -4868,7 +4865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1069</v>
       </c>
@@ -4891,7 +4888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1070</v>
       </c>
@@ -4914,7 +4911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1071</v>
       </c>
@@ -4937,7 +4934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1072</v>
       </c>
@@ -4960,7 +4957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1073</v>
       </c>
@@ -4980,7 +4977,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1074</v>
       </c>
@@ -5000,7 +4997,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1075</v>
       </c>
@@ -5020,7 +5017,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1076</v>
       </c>
@@ -5040,7 +5037,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1077</v>
       </c>
@@ -5063,7 +5060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1078</v>
       </c>
@@ -5086,7 +5083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1079</v>
       </c>
@@ -5106,7 +5103,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1080</v>
       </c>
@@ -5126,7 +5123,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1081</v>
       </c>
@@ -5146,7 +5143,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1082</v>
       </c>
@@ -5169,7 +5166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1083</v>
       </c>
@@ -5192,7 +5189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1084</v>
       </c>
@@ -5215,7 +5212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1085</v>
       </c>
@@ -5238,7 +5235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1086</v>
       </c>
@@ -5261,7 +5258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1087</v>
       </c>
@@ -5284,7 +5281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1088</v>
       </c>
@@ -5307,7 +5304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1089</v>
       </c>
@@ -5330,7 +5327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1090</v>
       </c>
@@ -5353,7 +5350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1091</v>
       </c>
@@ -5376,7 +5373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1092</v>
       </c>
@@ -5399,7 +5396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1093</v>
       </c>
@@ -5422,7 +5419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1094</v>
       </c>
@@ -5445,7 +5442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1095</v>
       </c>
@@ -5468,7 +5465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1096</v>
       </c>
@@ -5491,7 +5488,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1097</v>
       </c>
@@ -5511,7 +5508,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1098</v>
       </c>
@@ -5534,7 +5531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1099</v>
       </c>
@@ -5557,7 +5554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1100</v>
       </c>
@@ -5580,7 +5577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1101</v>
       </c>
@@ -5603,7 +5600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1101</v>
       </c>
@@ -5626,7 +5623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1102</v>
       </c>
@@ -5649,7 +5646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1103</v>
       </c>
@@ -5672,7 +5669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1103</v>
       </c>
@@ -5695,7 +5692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1104</v>
       </c>
@@ -5718,7 +5715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1104</v>
       </c>
@@ -5741,7 +5738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1105</v>
       </c>
@@ -5764,7 +5761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1105</v>
       </c>
@@ -5787,7 +5784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1105</v>
       </c>
@@ -5810,7 +5807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1105</v>
       </c>
@@ -5833,7 +5830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1106</v>
       </c>
@@ -5856,7 +5853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1107</v>
       </c>
@@ -5879,7 +5876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1108</v>
       </c>
@@ -5902,7 +5899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1109</v>
       </c>
@@ -5925,7 +5922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1109</v>
       </c>
@@ -5948,7 +5945,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1110</v>
       </c>
@@ -5968,7 +5965,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1111</v>
       </c>
@@ -5991,7 +5988,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1111</v>
       </c>
@@ -6014,7 +6011,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1112</v>
       </c>
@@ -6037,7 +6034,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1112</v>
       </c>
@@ -6060,7 +6057,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1113</v>
       </c>
@@ -6083,7 +6080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1113</v>
       </c>
@@ -6106,7 +6103,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1114</v>
       </c>
@@ -6129,7 +6126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1115</v>
       </c>
@@ -6152,7 +6149,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1116</v>
       </c>
@@ -6175,7 +6172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1117</v>
       </c>
@@ -6198,7 +6195,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1118</v>
       </c>
@@ -6221,7 +6218,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1119</v>
       </c>
@@ -6244,7 +6241,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1120</v>
       </c>
@@ -6267,7 +6264,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1121</v>
       </c>
@@ -6287,7 +6284,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1122</v>
       </c>
@@ -6310,7 +6307,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1123</v>
       </c>
@@ -6333,7 +6330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1124</v>
       </c>
@@ -6356,7 +6353,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1125</v>
       </c>
@@ -6376,7 +6373,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1126</v>
       </c>
@@ -6399,7 +6396,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1127</v>
       </c>
@@ -6422,7 +6419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1128</v>
       </c>
@@ -6445,7 +6442,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1129</v>
       </c>
@@ -6468,7 +6465,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1130</v>
       </c>
@@ -6491,7 +6488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1131</v>
       </c>
@@ -6514,7 +6511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1132</v>
       </c>
@@ -6537,7 +6534,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1133</v>
       </c>
@@ -6560,7 +6557,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1134</v>
       </c>
@@ -6583,7 +6580,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1135</v>
       </c>
@@ -6606,7 +6603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1136</v>
       </c>
@@ -6626,7 +6623,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1137</v>
       </c>
@@ -6646,7 +6643,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1138</v>
       </c>
@@ -6666,7 +6663,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1139</v>
       </c>
@@ -6686,7 +6683,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1140</v>
       </c>
@@ -6706,7 +6703,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1141</v>
       </c>
@@ -6729,7 +6726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1142</v>
       </c>
@@ -6752,7 +6749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1143</v>
       </c>
@@ -6772,7 +6769,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1144</v>
       </c>
@@ -6795,7 +6792,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1145</v>
       </c>
@@ -6818,7 +6815,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1146</v>
       </c>
@@ -6838,7 +6835,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1147</v>
       </c>
@@ -6861,7 +6858,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1148</v>
       </c>
@@ -6884,7 +6881,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1149</v>
       </c>
@@ -6907,7 +6904,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1150</v>
       </c>
@@ -6930,7 +6927,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1151</v>
       </c>
@@ -6953,7 +6950,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1152</v>
       </c>
@@ -6976,7 +6973,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1153</v>
       </c>
@@ -6999,7 +6996,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1154</v>
       </c>
@@ -7022,7 +7019,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1155</v>
       </c>
@@ -7045,7 +7042,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1156</v>
       </c>
@@ -7068,7 +7065,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1157</v>
       </c>
@@ -7091,7 +7088,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1158</v>
       </c>
@@ -7114,7 +7111,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1159</v>
       </c>
@@ -7134,7 +7131,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1160</v>
       </c>
@@ -7157,7 +7154,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1161</v>
       </c>
@@ -7180,7 +7177,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1162</v>
       </c>
@@ -7203,7 +7200,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1163</v>
       </c>
@@ -7223,7 +7220,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1164</v>
       </c>
@@ -7246,7 +7243,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1165</v>
       </c>
@@ -7269,7 +7266,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1166</v>
       </c>
@@ -7292,7 +7289,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1167</v>
       </c>
@@ -7315,7 +7312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1168</v>
       </c>
@@ -7338,7 +7335,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1168</v>
       </c>
@@ -7361,7 +7358,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1169</v>
       </c>
@@ -7384,7 +7381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1170</v>
       </c>
@@ -7407,7 +7404,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1171</v>
       </c>
@@ -7430,7 +7427,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1171</v>
       </c>
@@ -7453,7 +7450,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1172</v>
       </c>
@@ -7476,7 +7473,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1173</v>
       </c>
@@ -7499,7 +7496,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1174</v>
       </c>
@@ -7519,7 +7516,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1175</v>
       </c>
@@ -7542,7 +7539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1176</v>
       </c>
@@ -7565,7 +7562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1177</v>
       </c>
@@ -7588,7 +7585,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1177</v>
       </c>
@@ -7611,7 +7608,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1178</v>
       </c>
@@ -7634,7 +7631,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1179</v>
       </c>
@@ -7657,7 +7654,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1180</v>
       </c>
@@ -7680,7 +7677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1181</v>
       </c>
@@ -7703,7 +7700,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1182</v>
       </c>
@@ -7726,7 +7723,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1183</v>
       </c>
@@ -7746,7 +7743,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1184</v>
       </c>
@@ -7769,7 +7766,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1184</v>
       </c>
@@ -7792,7 +7789,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1185</v>
       </c>
@@ -7812,7 +7809,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1186</v>
       </c>
@@ -7832,7 +7829,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1187</v>
       </c>
@@ -7852,7 +7849,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1188</v>
       </c>
@@ -7872,7 +7869,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1189</v>
       </c>
@@ -7892,7 +7889,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1190</v>
       </c>
@@ -7915,7 +7912,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1191</v>
       </c>
@@ -7938,7 +7935,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1192</v>
       </c>
@@ -7961,7 +7958,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>1193</v>
       </c>
@@ -7984,7 +7981,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1194</v>
       </c>
@@ -8007,7 +8004,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1195</v>
       </c>
@@ -8030,7 +8027,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1196</v>
       </c>
@@ -8050,7 +8047,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>1197</v>
       </c>
@@ -8070,7 +8067,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>1198</v>
       </c>
@@ -8090,7 +8087,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>1199</v>
       </c>
@@ -8110,7 +8107,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1200</v>
       </c>
@@ -8130,7 +8127,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1201</v>
       </c>
@@ -8150,7 +8147,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1202</v>
       </c>
@@ -8170,7 +8167,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>1203</v>
       </c>
@@ -8190,7 +8187,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>1204</v>
       </c>
@@ -8210,7 +8207,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1205</v>
       </c>
@@ -8230,7 +8227,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1206</v>
       </c>
@@ -8250,7 +8247,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1207</v>
       </c>
@@ -8270,7 +8267,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1208</v>
       </c>
@@ -8290,7 +8287,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>1209</v>
       </c>
@@ -8313,7 +8310,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>1210</v>
       </c>
@@ -8336,7 +8333,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1211</v>
       </c>
@@ -8359,7 +8356,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>1212</v>
       </c>
@@ -8382,7 +8379,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1213</v>
       </c>
@@ -8402,7 +8399,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1214</v>
       </c>
@@ -8422,7 +8419,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1215</v>
       </c>
@@ -8442,7 +8439,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1216</v>
       </c>
@@ -8462,7 +8459,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1217</v>
       </c>
@@ -8482,7 +8479,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>1218</v>
       </c>
@@ -8505,7 +8502,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1219</v>
       </c>
@@ -8528,7 +8525,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1220</v>
       </c>
@@ -8548,7 +8545,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1221</v>
       </c>
@@ -8571,7 +8568,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>1222</v>
       </c>
@@ -8594,7 +8591,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1223</v>
       </c>
@@ -8617,7 +8614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1224</v>
       </c>
@@ -8640,7 +8637,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>1225</v>
       </c>
@@ -8660,7 +8657,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1226</v>
       </c>
@@ -8680,7 +8677,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1227</v>
       </c>
@@ -8700,7 +8697,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1228</v>
       </c>
@@ -8720,7 +8717,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>1229</v>
       </c>
@@ -8740,7 +8737,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>1230</v>
       </c>
@@ -8760,7 +8757,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1231</v>
       </c>
@@ -8783,7 +8780,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1232</v>
       </c>
@@ -8806,7 +8803,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>1232</v>
       </c>
@@ -8829,7 +8826,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1233</v>
       </c>
@@ -8852,7 +8849,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1233</v>
       </c>
@@ -8875,7 +8872,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1234</v>
       </c>
@@ -8898,7 +8895,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1235</v>
       </c>
@@ -8921,7 +8918,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1235</v>
       </c>
@@ -8944,7 +8941,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1236</v>
       </c>
@@ -8964,7 +8961,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1237</v>
       </c>
@@ -8984,7 +8981,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1238</v>
       </c>
@@ -9004,7 +9001,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1239</v>
       </c>
@@ -9027,7 +9024,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1240</v>
       </c>
@@ -9050,7 +9047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>1241</v>
       </c>
@@ -9073,7 +9070,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>1242</v>
       </c>
@@ -9096,7 +9093,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>1243</v>
       </c>
@@ -9119,7 +9116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1244</v>
       </c>
@@ -9142,7 +9139,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>1245</v>
       </c>
@@ -9165,7 +9162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>1245</v>
       </c>
@@ -9188,7 +9185,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>1246</v>
       </c>
@@ -9211,7 +9208,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>1246</v>
       </c>
@@ -9234,7 +9231,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>1247</v>
       </c>
@@ -9257,7 +9254,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>1248</v>
       </c>
@@ -9277,7 +9274,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>1249</v>
       </c>
@@ -9297,7 +9294,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>1250</v>
       </c>
@@ -9317,7 +9314,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>1251</v>
       </c>
@@ -9337,7 +9334,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>1252</v>
       </c>
@@ -9357,7 +9354,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>1253</v>
       </c>
@@ -9377,7 +9374,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>1254</v>
       </c>
@@ -9397,7 +9394,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>1255</v>
       </c>
@@ -9417,7 +9414,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>1256</v>
       </c>
@@ -9437,7 +9434,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>1257</v>
       </c>
@@ -9457,7 +9454,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1258</v>
       </c>
@@ -9477,7 +9474,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>1259</v>
       </c>
@@ -9497,7 +9494,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>1260</v>
       </c>
@@ -9517,7 +9514,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>1261</v>
       </c>
@@ -9537,7 +9534,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>1262</v>
       </c>
@@ -9557,7 +9554,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>1263</v>
       </c>
@@ -9577,7 +9574,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>1264</v>
       </c>
@@ -9597,7 +9594,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>1265</v>
       </c>
@@ -9620,7 +9617,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>1266</v>
       </c>
@@ -9640,7 +9637,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>1267</v>
       </c>
@@ -9663,7 +9660,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>1268</v>
       </c>
@@ -9683,7 +9680,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1269</v>
       </c>
@@ -9706,7 +9703,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>1270</v>
       </c>
@@ -9729,7 +9726,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>1270</v>
       </c>
@@ -9752,7 +9749,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>1271</v>
       </c>
@@ -9775,7 +9772,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1271</v>
       </c>
@@ -9798,7 +9795,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>1272</v>
       </c>
@@ -9821,7 +9818,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>1272</v>
       </c>
@@ -9844,7 +9841,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>1273</v>
       </c>
@@ -9867,7 +9864,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>1273</v>
       </c>
@@ -9890,7 +9887,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>1274</v>
       </c>
@@ -9913,7 +9910,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>1275</v>
       </c>
@@ -9936,7 +9933,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>1275</v>
       </c>
@@ -9959,7 +9956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>1276</v>
       </c>
@@ -9982,7 +9979,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>1276</v>
       </c>
@@ -10005,7 +10002,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>1277</v>
       </c>
@@ -10028,7 +10025,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>1277</v>
       </c>
@@ -10051,7 +10048,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>1278</v>
       </c>
@@ -10074,7 +10071,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>1279</v>
       </c>
@@ -10094,7 +10091,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>1280</v>
       </c>
@@ -10117,7 +10114,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>1281</v>
       </c>
@@ -10137,7 +10134,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1282</v>
       </c>
@@ -10160,7 +10157,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1283</v>
       </c>
@@ -10183,7 +10180,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>1284</v>
       </c>
@@ -10203,7 +10200,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1285</v>
       </c>
@@ -10226,7 +10223,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>1286</v>
       </c>
@@ -10249,7 +10246,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>1287</v>
       </c>
@@ -10272,7 +10269,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1288</v>
       </c>
@@ -10295,7 +10292,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>1289</v>
       </c>
@@ -10318,7 +10315,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>1290</v>
       </c>
@@ -10338,7 +10335,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1291</v>
       </c>
@@ -10361,7 +10358,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1292</v>
       </c>
@@ -10384,7 +10381,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>1293</v>
       </c>
@@ -10407,7 +10404,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>1294</v>
       </c>
@@ -10430,7 +10427,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>1295</v>
       </c>
@@ -10453,7 +10450,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>1296</v>
       </c>
@@ -10473,7 +10470,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>1297</v>
       </c>
@@ -10496,7 +10493,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1298</v>
       </c>
@@ -10519,7 +10516,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>1299</v>
       </c>
@@ -10542,7 +10539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>1300</v>
       </c>
@@ -10565,7 +10562,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1301</v>
       </c>
@@ -10588,7 +10585,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1302</v>
       </c>
@@ -10611,7 +10608,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>1303</v>
       </c>
@@ -10631,7 +10628,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>1304</v>
       </c>
@@ -10654,7 +10651,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>1305</v>
       </c>
@@ -10677,7 +10674,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1306</v>
       </c>
@@ -10700,7 +10697,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1307</v>
       </c>
@@ -10720,7 +10717,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>1308</v>
       </c>
@@ -10757,13 +10754,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF67F8AA-273C-1449-BE19-F429B0410703}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>811</v>
       </c>
@@ -10786,7 +10783,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10809,7 +10806,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10832,7 +10829,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10852,7 +10849,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10872,7 +10869,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10892,7 +10889,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -10912,7 +10909,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -10932,7 +10929,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -10952,7 +10949,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -10972,7 +10969,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -10992,7 +10989,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -11012,7 +11009,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -11032,7 +11029,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -11052,7 +11049,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -11072,7 +11069,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -11092,7 +11089,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -11112,7 +11109,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -11132,7 +11129,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -11152,7 +11149,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -11172,7 +11169,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -11192,7 +11189,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -11215,7 +11212,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -11235,7 +11232,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -11258,7 +11255,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -11278,7 +11275,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -11301,7 +11298,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -11321,7 +11318,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -11344,7 +11341,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -11364,7 +11361,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -11387,7 +11384,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -11407,7 +11404,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -11430,7 +11427,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -11450,7 +11447,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -11470,7 +11467,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -11490,7 +11487,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -11510,7 +11507,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -11531,7 +11528,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -11552,7 +11549,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -11570,7 +11567,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -11588,7 +11585,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -11609,7 +11606,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -11639,13 +11636,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82A2739-9078-9649-97B6-3AED2922AF6C}">
   <dimension ref="A1:B421"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>854</v>
       </c>
@@ -11653,7 +11650,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11661,7 +11658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11669,7 +11666,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11677,7 +11674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11685,7 +11682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -11693,7 +11690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -11701,7 +11698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -11709,7 +11706,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -11717,7 +11714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11725,7 +11722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11733,7 +11730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11741,7 +11738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11749,7 +11746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -11757,7 +11754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -11765,7 +11762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -11773,7 +11770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -11781,7 +11778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -11789,7 +11786,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -11797,7 +11794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -11805,7 +11802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -11813,7 +11810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -11821,7 +11818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -11829,7 +11826,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -11837,7 +11834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
@@ -11845,7 +11842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
@@ -11853,7 +11850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>22</v>
       </c>
@@ -11861,7 +11858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>23</v>
       </c>
@@ -11869,7 +11866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>23</v>
       </c>
@@ -11877,7 +11874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>24</v>
       </c>
@@ -11885,7 +11882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>25</v>
       </c>
@@ -11893,7 +11890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>26</v>
       </c>
@@ -11901,7 +11898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>27</v>
       </c>
@@ -11909,7 +11906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>28</v>
       </c>
@@ -11917,7 +11914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>29</v>
       </c>
@@ -11925,7 +11922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>29</v>
       </c>
@@ -11933,7 +11930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>30</v>
       </c>
@@ -11941,7 +11938,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>33</v>
       </c>
@@ -11949,7 +11946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
@@ -11957,7 +11954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>36</v>
       </c>
@@ -11965,7 +11962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
@@ -11973,7 +11970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
@@ -11981,7 +11978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>39</v>
       </c>
@@ -11989,7 +11986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40</v>
       </c>
@@ -11997,7 +11994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>41</v>
       </c>
@@ -12005,7 +12002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>42</v>
       </c>
@@ -12013,7 +12010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>43</v>
       </c>
@@ -12021,7 +12018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>44</v>
       </c>
@@ -12029,7 +12026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>45</v>
       </c>
@@ -12037,7 +12034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>45</v>
       </c>
@@ -12045,7 +12042,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>46</v>
       </c>
@@ -12053,7 +12050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>47</v>
       </c>
@@ -12061,7 +12058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>48</v>
       </c>
@@ -12069,7 +12066,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>49</v>
       </c>
@@ -12077,7 +12074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>50</v>
       </c>
@@ -12085,7 +12082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>51</v>
       </c>
@@ -12093,7 +12090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>52</v>
       </c>
@@ -12101,7 +12098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>53</v>
       </c>
@@ -12109,7 +12106,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>54</v>
       </c>
@@ -12117,7 +12114,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>55</v>
       </c>
@@ -12125,7 +12122,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -12133,7 +12130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -12141,7 +12138,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -12149,7 +12146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>70</v>
       </c>
@@ -12157,7 +12154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>71</v>
       </c>
@@ -12165,7 +12162,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>72</v>
       </c>
@@ -12173,7 +12170,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>73</v>
       </c>
@@ -12181,7 +12178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>74</v>
       </c>
@@ -12189,7 +12186,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>75</v>
       </c>
@@ -12197,7 +12194,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>76</v>
       </c>
@@ -12205,7 +12202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>77</v>
       </c>
@@ -12213,7 +12210,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>78</v>
       </c>
@@ -12221,7 +12218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>79</v>
       </c>
@@ -12229,7 +12226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>80</v>
       </c>
@@ -12237,7 +12234,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>81</v>
       </c>
@@ -12245,7 +12242,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>83</v>
       </c>
@@ -12253,7 +12250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>84</v>
       </c>
@@ -12261,7 +12258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>90</v>
       </c>
@@ -12269,7 +12266,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>91</v>
       </c>
@@ -12277,7 +12274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1001</v>
       </c>
@@ -12285,7 +12282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1002</v>
       </c>
@@ -12293,7 +12290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1003</v>
       </c>
@@ -12301,7 +12298,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1004</v>
       </c>
@@ -12309,7 +12306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1004</v>
       </c>
@@ -12317,7 +12314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1005</v>
       </c>
@@ -12325,7 +12322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1006</v>
       </c>
@@ -12333,7 +12330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1007</v>
       </c>
@@ -12341,7 +12338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1007</v>
       </c>
@@ -12349,7 +12346,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1007</v>
       </c>
@@ -12357,7 +12354,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1008</v>
       </c>
@@ -12365,7 +12362,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1009</v>
       </c>
@@ -12373,7 +12370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1010</v>
       </c>
@@ -12381,7 +12378,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1011</v>
       </c>
@@ -12389,7 +12386,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1012</v>
       </c>
@@ -12397,7 +12394,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1012</v>
       </c>
@@ -12405,7 +12402,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1013</v>
       </c>
@@ -12413,7 +12410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1014</v>
       </c>
@@ -12421,7 +12418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1015</v>
       </c>
@@ -12429,7 +12426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1016</v>
       </c>
@@ -12437,7 +12434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1018</v>
       </c>
@@ -12445,7 +12442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1019</v>
       </c>
@@ -12453,7 +12450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1020</v>
       </c>
@@ -12461,7 +12458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -12469,7 +12466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1023</v>
       </c>
@@ -12477,7 +12474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1023</v>
       </c>
@@ -12485,7 +12482,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1024</v>
       </c>
@@ -12493,7 +12490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1025</v>
       </c>
@@ -12501,7 +12498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1026</v>
       </c>
@@ -12509,7 +12506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1027</v>
       </c>
@@ -12517,7 +12514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1028</v>
       </c>
@@ -12525,7 +12522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1029</v>
       </c>
@@ -12533,7 +12530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1030</v>
       </c>
@@ -12541,7 +12538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1031</v>
       </c>
@@ -12549,7 +12546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1032</v>
       </c>
@@ -12557,7 +12554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1033</v>
       </c>
@@ -12565,7 +12562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1034</v>
       </c>
@@ -12573,7 +12570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1035</v>
       </c>
@@ -12581,7 +12578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1036</v>
       </c>
@@ -12589,7 +12586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1037</v>
       </c>
@@ -12597,7 +12594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1038</v>
       </c>
@@ -12605,7 +12602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1040</v>
       </c>
@@ -12613,7 +12610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1041</v>
       </c>
@@ -12621,7 +12618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1042</v>
       </c>
@@ -12629,7 +12626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1043</v>
       </c>
@@ -12637,7 +12634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1043</v>
       </c>
@@ -12645,7 +12642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1044</v>
       </c>
@@ -12653,7 +12650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1045</v>
       </c>
@@ -12661,7 +12658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1046</v>
       </c>
@@ -12669,7 +12666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1047</v>
       </c>
@@ -12677,7 +12674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1047</v>
       </c>
@@ -12685,7 +12682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1048</v>
       </c>
@@ -12693,7 +12690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1049</v>
       </c>
@@ -12701,7 +12698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1050</v>
       </c>
@@ -12709,7 +12706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1050</v>
       </c>
@@ -12717,7 +12714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1051</v>
       </c>
@@ -12725,7 +12722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1051</v>
       </c>
@@ -12733,7 +12730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1054</v>
       </c>
@@ -12741,7 +12738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1058</v>
       </c>
@@ -12749,7 +12746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1059</v>
       </c>
@@ -12757,7 +12754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1060</v>
       </c>
@@ -12765,7 +12762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1061</v>
       </c>
@@ -12773,7 +12770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1062</v>
       </c>
@@ -12781,7 +12778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1063</v>
       </c>
@@ -12789,7 +12786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1064</v>
       </c>
@@ -12797,7 +12794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1064</v>
       </c>
@@ -12805,7 +12802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1065</v>
       </c>
@@ -12813,7 +12810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1066</v>
       </c>
@@ -12821,7 +12818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1066</v>
       </c>
@@ -12829,7 +12826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1067</v>
       </c>
@@ -12837,7 +12834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1067</v>
       </c>
@@ -12845,7 +12842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1068</v>
       </c>
@@ -12853,7 +12850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1069</v>
       </c>
@@ -12861,7 +12858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1070</v>
       </c>
@@ -12869,7 +12866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1071</v>
       </c>
@@ -12877,7 +12874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1072</v>
       </c>
@@ -12885,7 +12882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1073</v>
       </c>
@@ -12893,7 +12890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1074</v>
       </c>
@@ -12901,7 +12898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1074</v>
       </c>
@@ -12909,7 +12906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1075</v>
       </c>
@@ -12917,7 +12914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1076</v>
       </c>
@@ -12925,7 +12922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1078</v>
       </c>
@@ -12933,7 +12930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1079</v>
       </c>
@@ -12941,7 +12938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1079</v>
       </c>
@@ -12949,7 +12946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1079</v>
       </c>
@@ -12957,7 +12954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1080</v>
       </c>
@@ -12965,7 +12962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1080</v>
       </c>
@@ -12973,7 +12970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1081</v>
       </c>
@@ -12981,7 +12978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1083</v>
       </c>
@@ -12989,7 +12986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1084</v>
       </c>
@@ -12997,7 +12994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1085</v>
       </c>
@@ -13005,7 +13002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1086</v>
       </c>
@@ -13013,7 +13010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1087</v>
       </c>
@@ -13021,7 +13018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1088</v>
       </c>
@@ -13029,7 +13026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1089</v>
       </c>
@@ -13037,7 +13034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1090</v>
       </c>
@@ -13045,7 +13042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1091</v>
       </c>
@@ -13053,7 +13050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1092</v>
       </c>
@@ -13061,7 +13058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1092</v>
       </c>
@@ -13069,7 +13066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1093</v>
       </c>
@@ -13077,7 +13074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1094</v>
       </c>
@@ -13085,7 +13082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1095</v>
       </c>
@@ -13093,7 +13090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1096</v>
       </c>
@@ -13101,7 +13098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1097</v>
       </c>
@@ -13109,7 +13106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1098</v>
       </c>
@@ -13117,7 +13114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1099</v>
       </c>
@@ -13125,7 +13122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1100</v>
       </c>
@@ -13133,7 +13130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1100</v>
       </c>
@@ -13141,7 +13138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1101</v>
       </c>
@@ -13149,7 +13146,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1101</v>
       </c>
@@ -13157,7 +13154,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1102</v>
       </c>
@@ -13165,7 +13162,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1102</v>
       </c>
@@ -13173,7 +13170,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1102</v>
       </c>
@@ -13181,7 +13178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1103</v>
       </c>
@@ -13189,7 +13186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1104</v>
       </c>
@@ -13197,7 +13194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1105</v>
       </c>
@@ -13205,7 +13202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1106</v>
       </c>
@@ -13213,7 +13210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1107</v>
       </c>
@@ -13221,7 +13218,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1108</v>
       </c>
@@ -13229,7 +13226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1109</v>
       </c>
@@ -13237,7 +13234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1109</v>
       </c>
@@ -13245,7 +13242,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1110</v>
       </c>
@@ -13253,7 +13250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1111</v>
       </c>
@@ -13261,7 +13258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1111</v>
       </c>
@@ -13269,7 +13266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1111</v>
       </c>
@@ -13277,7 +13274,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1112</v>
       </c>
@@ -13285,7 +13282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1112</v>
       </c>
@@ -13293,7 +13290,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1113</v>
       </c>
@@ -13301,7 +13298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1113</v>
       </c>
@@ -13309,7 +13306,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1114</v>
       </c>
@@ -13317,7 +13314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1115</v>
       </c>
@@ -13325,7 +13322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1116</v>
       </c>
@@ -13333,7 +13330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1117</v>
       </c>
@@ -13341,7 +13338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1118</v>
       </c>
@@ -13349,7 +13346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1119</v>
       </c>
@@ -13357,7 +13354,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1121</v>
       </c>
@@ -13365,7 +13362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1125</v>
       </c>
@@ -13373,7 +13370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1126</v>
       </c>
@@ -13381,7 +13378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1127</v>
       </c>
@@ -13389,7 +13386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1128</v>
       </c>
@@ -13397,7 +13394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1129</v>
       </c>
@@ -13405,7 +13402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>1130</v>
       </c>
@@ -13413,7 +13410,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1131</v>
       </c>
@@ -13421,7 +13418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1132</v>
       </c>
@@ -13429,7 +13426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1133</v>
       </c>
@@ -13437,7 +13434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>1134</v>
       </c>
@@ -13445,7 +13442,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>1135</v>
       </c>
@@ -13453,7 +13450,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>1136</v>
       </c>
@@ -13461,7 +13458,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1136</v>
       </c>
@@ -13469,7 +13466,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1136</v>
       </c>
@@ -13477,7 +13474,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1137</v>
       </c>
@@ -13485,7 +13482,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>1138</v>
       </c>
@@ -13493,7 +13490,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>1139</v>
       </c>
@@ -13501,7 +13498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1140</v>
       </c>
@@ -13509,7 +13506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1142</v>
       </c>
@@ -13517,7 +13514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1143</v>
       </c>
@@ -13525,7 +13522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1144</v>
       </c>
@@ -13533,7 +13530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>1145</v>
       </c>
@@ -13541,7 +13538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>1146</v>
       </c>
@@ -13549,7 +13546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1150</v>
       </c>
@@ -13557,7 +13554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>1151</v>
       </c>
@@ -13565,7 +13562,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1152</v>
       </c>
@@ -13573,7 +13570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1153</v>
       </c>
@@ -13581,7 +13578,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1154</v>
       </c>
@@ -13589,7 +13586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1155</v>
       </c>
@@ -13597,7 +13594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1156</v>
       </c>
@@ -13605,7 +13602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>1157</v>
       </c>
@@ -13613,7 +13610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1158</v>
       </c>
@@ -13621,7 +13618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1159</v>
       </c>
@@ -13629,7 +13626,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1160</v>
       </c>
@@ -13637,7 +13634,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>1161</v>
       </c>
@@ -13645,7 +13642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1162</v>
       </c>
@@ -13653,7 +13650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1163</v>
       </c>
@@ -13661,7 +13658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>1164</v>
       </c>
@@ -13669,7 +13666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1165</v>
       </c>
@@ -13677,7 +13674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1165</v>
       </c>
@@ -13685,7 +13682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1165</v>
       </c>
@@ -13693,7 +13690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>1165</v>
       </c>
@@ -13701,7 +13698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>1166</v>
       </c>
@@ -13709,7 +13706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1166</v>
       </c>
@@ -13717,7 +13714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1168</v>
       </c>
@@ -13725,7 +13722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>1169</v>
       </c>
@@ -13733,7 +13730,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1170</v>
       </c>
@@ -13741,7 +13738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1171</v>
       </c>
@@ -13749,7 +13746,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1172</v>
       </c>
@@ -13757,7 +13754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1172</v>
       </c>
@@ -13765,7 +13762,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1173</v>
       </c>
@@ -13773,7 +13770,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1174</v>
       </c>
@@ -13781,7 +13778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1175</v>
       </c>
@@ -13789,7 +13786,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1176</v>
       </c>
@@ -13797,7 +13794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1177</v>
       </c>
@@ -13805,7 +13802,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1178</v>
       </c>
@@ -13813,7 +13810,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>1179</v>
       </c>
@@ -13821,7 +13818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>1180</v>
       </c>
@@ -13829,7 +13826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>1181</v>
       </c>
@@ -13837,7 +13834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1182</v>
       </c>
@@ -13845,7 +13842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>1183</v>
       </c>
@@ -13853,7 +13850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>1184</v>
       </c>
@@ -13861,7 +13858,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>1185</v>
       </c>
@@ -13869,7 +13866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>1186</v>
       </c>
@@ -13877,7 +13874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>1187</v>
       </c>
@@ -13885,7 +13882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>1187</v>
       </c>
@@ -13893,7 +13890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>1188</v>
       </c>
@@ -13901,7 +13898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>1189</v>
       </c>
@@ -13909,7 +13906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>1190</v>
       </c>
@@ -13917,7 +13914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>1190</v>
       </c>
@@ -13925,7 +13922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>1191</v>
       </c>
@@ -13933,7 +13930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>1192</v>
       </c>
@@ -13941,7 +13938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>1193</v>
       </c>
@@ -13949,7 +13946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>1194</v>
       </c>
@@ -13957,7 +13954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>1195</v>
       </c>
@@ -13965,7 +13962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1196</v>
       </c>
@@ -13973,7 +13970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>1197</v>
       </c>
@@ -13981,7 +13978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>1197</v>
       </c>
@@ -13989,7 +13986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>1197</v>
       </c>
@@ -13997,7 +13994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>1197</v>
       </c>
@@ -14005,7 +14002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>1197</v>
       </c>
@@ -14013,7 +14010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>1198</v>
       </c>
@@ -14021,7 +14018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>1199</v>
       </c>
@@ -14029,7 +14026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>1199</v>
       </c>
@@ -14037,7 +14034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>1199</v>
       </c>
@@ -14045,7 +14042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>1199</v>
       </c>
@@ -14053,7 +14050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1200</v>
       </c>
@@ -14061,7 +14058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>1201</v>
       </c>
@@ -14069,7 +14066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>1202</v>
       </c>
@@ -14077,7 +14074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>1203</v>
       </c>
@@ -14085,7 +14082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1204</v>
       </c>
@@ -14093,7 +14090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>1205</v>
       </c>
@@ -14101,7 +14098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>1206</v>
       </c>
@@ -14109,7 +14106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>1207</v>
       </c>
@@ -14117,7 +14114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>1208</v>
       </c>
@@ -14125,7 +14122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>1208</v>
       </c>
@@ -14133,7 +14130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>1208</v>
       </c>
@@ -14141,7 +14138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>1208</v>
       </c>
@@ -14149,7 +14146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>1209</v>
       </c>
@@ -14157,7 +14154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>1211</v>
       </c>
@@ -14165,7 +14162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>1212</v>
       </c>
@@ -14173,7 +14170,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>1213</v>
       </c>
@@ -14181,7 +14178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>1214</v>
       </c>
@@ -14189,7 +14186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>1215</v>
       </c>
@@ -14197,7 +14194,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>1216</v>
       </c>
@@ -14205,7 +14202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>1217</v>
       </c>
@@ -14213,7 +14210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1219</v>
       </c>
@@ -14221,7 +14218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1219</v>
       </c>
@@ -14229,7 +14226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>1220</v>
       </c>
@@ -14237,7 +14234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1220</v>
       </c>
@@ -14245,7 +14242,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>1221</v>
       </c>
@@ -14253,7 +14250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>1222</v>
       </c>
@@ -14261,7 +14258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1223</v>
       </c>
@@ -14269,7 +14266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>1225</v>
       </c>
@@ -14277,7 +14274,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>1226</v>
       </c>
@@ -14285,7 +14282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1227</v>
       </c>
@@ -14293,7 +14290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1228</v>
       </c>
@@ -14301,7 +14298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>1228</v>
       </c>
@@ -14309,7 +14306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>1228</v>
       </c>
@@ -14317,7 +14314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>1228</v>
       </c>
@@ -14325,7 +14322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>1229</v>
       </c>
@@ -14333,7 +14330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>1230</v>
       </c>
@@ -14341,7 +14338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1231</v>
       </c>
@@ -14349,7 +14346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>1232</v>
       </c>
@@ -14357,7 +14354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>1233</v>
       </c>
@@ -14365,7 +14362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1234</v>
       </c>
@@ -14373,7 +14370,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1235</v>
       </c>
@@ -14381,7 +14378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>1236</v>
       </c>
@@ -14389,7 +14386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>1236</v>
       </c>
@@ -14397,7 +14394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>1236</v>
       </c>
@@ -14405,7 +14402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1236</v>
       </c>
@@ -14413,7 +14410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1237</v>
       </c>
@@ -14421,7 +14418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>1238</v>
       </c>
@@ -14429,7 +14426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1239</v>
       </c>
@@ -14437,7 +14434,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1240</v>
       </c>
@@ -14445,7 +14442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1240</v>
       </c>
@@ -14453,7 +14450,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>1240</v>
       </c>
@@ -14461,7 +14458,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>1241</v>
       </c>
@@ -14469,7 +14466,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>1242</v>
       </c>
@@ -14477,7 +14474,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>1243</v>
       </c>
@@ -14485,7 +14482,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>1244</v>
       </c>
@@ -14493,7 +14490,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>1245</v>
       </c>
@@ -14501,7 +14498,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>1245</v>
       </c>
@@ -14509,7 +14506,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>1246</v>
       </c>
@@ -14517,7 +14514,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>1246</v>
       </c>
@@ -14525,7 +14522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>1247</v>
       </c>
@@ -14533,7 +14530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>1248</v>
       </c>
@@ -14541,7 +14538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>1248</v>
       </c>
@@ -14549,7 +14546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>1249</v>
       </c>
@@ -14557,7 +14554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>1249</v>
       </c>
@@ -14565,7 +14562,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>1250</v>
       </c>
@@ -14573,7 +14570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>1251</v>
       </c>
@@ -14581,7 +14578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>1252</v>
       </c>
@@ -14589,7 +14586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>1253</v>
       </c>
@@ -14597,7 +14594,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>1254</v>
       </c>
@@ -14605,7 +14602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>1255</v>
       </c>
@@ -14613,7 +14610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>1256</v>
       </c>
@@ -14621,7 +14618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>1257</v>
       </c>
@@ -14629,7 +14626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>1258</v>
       </c>
@@ -14637,7 +14634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>1259</v>
       </c>
@@ -14645,7 +14642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>1260</v>
       </c>
@@ -14653,7 +14650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>1260</v>
       </c>
@@ -14661,7 +14658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>1261</v>
       </c>
@@ -14669,7 +14666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>1262</v>
       </c>
@@ -14677,7 +14674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>1263</v>
       </c>
@@ -14685,7 +14682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>1264</v>
       </c>
@@ -14693,7 +14690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>1265</v>
       </c>
@@ -14701,7 +14698,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>1266</v>
       </c>
@@ -14709,7 +14706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>1267</v>
       </c>
@@ -14717,7 +14714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>1268</v>
       </c>
@@ -14725,7 +14722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>1269</v>
       </c>
@@ -14733,7 +14730,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>1272</v>
       </c>
@@ -14741,7 +14738,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>1273</v>
       </c>
@@ -14749,7 +14746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>1273</v>
       </c>
@@ -14757,7 +14754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>1274</v>
       </c>
@@ -14765,7 +14762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>1275</v>
       </c>
@@ -14773,7 +14770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>1275</v>
       </c>
@@ -14781,7 +14778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>1276</v>
       </c>
@@ -14789,7 +14786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>1276</v>
       </c>
@@ -14797,7 +14794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>1277</v>
       </c>
@@ -14805,7 +14802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>1277</v>
       </c>
@@ -14813,7 +14810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>1279</v>
       </c>
@@ -14821,7 +14818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>1280</v>
       </c>
@@ -14829,7 +14826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>1281</v>
       </c>
@@ -14837,7 +14834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>1282</v>
       </c>
@@ -14845,7 +14842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>1284</v>
       </c>
@@ -14853,7 +14850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>1284</v>
       </c>
@@ -14861,7 +14858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>1284</v>
       </c>
@@ -14869,7 +14866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>1286</v>
       </c>
@@ -14877,7 +14874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>1287</v>
       </c>
@@ -14885,7 +14882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>1288</v>
       </c>
@@ -14893,7 +14890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>1289</v>
       </c>
@@ -14901,7 +14898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>1290</v>
       </c>
@@ -14909,7 +14906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>1296</v>
       </c>
@@ -14917,7 +14914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>1297</v>
       </c>
@@ -14925,7 +14922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>1298</v>
       </c>
@@ -14933,7 +14930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>1299</v>
       </c>
@@ -14941,7 +14938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>1300</v>
       </c>
@@ -14949,7 +14946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>1301</v>
       </c>
@@ -14957,7 +14954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>1302</v>
       </c>
@@ -14965,7 +14962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>1303</v>
       </c>
@@ -14973,7 +14970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>1304</v>
       </c>
@@ -14981,7 +14978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>1305</v>
       </c>
@@ -14989,7 +14986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>1306</v>
       </c>
@@ -14997,7 +14994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>1307</v>
       </c>
@@ -15005,7 +15002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>1308</v>
       </c>
@@ -15026,9 +15023,9 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>811</v>
       </c>
@@ -15042,7 +15039,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -15056,7 +15053,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -15070,7 +15067,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -15084,7 +15081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -15098,7 +15095,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -15112,7 +15109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>15</v>
       </c>
